--- a/app/courses/java/GI2S1/Liste GI2S1 10-05-2020.xlsx
+++ b/app/courses/java/GI2S1/Liste GI2S1 10-05-2020.xlsx
@@ -34,7 +34,7 @@
     <t>samiBHH</t>
   </si>
   <si>
-    <t>rafikBougheriw</t>
+    <t>rafikBgh</t>
   </si>
   <si>
     <t>-</t>
@@ -402,7 +402,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>33333333</v>
+        <v>22222222</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>44444444</v>
+        <v>33333333</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
